--- a/Documentos/Itinerario_Diario_Condor_Mateo_Ichthion.xlsx
+++ b/Documentos/Itinerario_Diario_Condor_Mateo_Ichthion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo/Documentos Pasantias/24421_PPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af6f98336ce5edb5/Documentos/Trabajo Ichthion/Documentos Pasantias/24421_PPP/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{4F48CCDA-1ACE-4CED-94A5-C7CE1F1B9638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B14F13CD-25CA-432B-BE50-E15FFEF0D15E}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{4F48CCDA-1ACE-4CED-94A5-C7CE1F1B9638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448D8F68-FBC7-42C8-B0A7-1440974A1C25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1980" windowWidth="23145" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActividadesDetalle" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>FECHA</t>
   </si>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -335,10 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,19 +348,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -409,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,6 +415,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="61" style="21" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="61" style="16" customWidth="1"/>
     <col min="3" max="3" width="71.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.375" style="3" customWidth="1"/>
@@ -708,49 +702,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>45754</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:8" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -778,142 +772,135 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
+      <c r="A9" s="19">
         <v>45754</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>45755</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
-        <v>45755</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="11">
+    </row>
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
+        <v>45756</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10">
         <v>6</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24">
-        <v>45756</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="11">
+    </row>
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19">
+        <v>45757</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24">
-        <v>45757</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11">
+    </row>
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19">
+        <v>45758</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="24">
-        <v>45758</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11">
+    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
+        <v>45761</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
-        <v>45761</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11">
+    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
+        <v>45762</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24">
-        <v>45762</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="11">
+    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="19">
+        <v>45763</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24">
-        <v>45763</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+    <row r="17" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
         <v>45764</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
         <v>45765</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="H18" s="30"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>45768</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="3"/>
@@ -922,10 +909,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
+      <c r="A20" s="19">
         <v>45769</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3"/>
@@ -934,10 +921,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
+      <c r="A21" s="19">
         <v>45770</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3"/>
@@ -946,10 +933,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24">
+      <c r="A22" s="19">
         <v>45771</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3"/>
@@ -958,22 +945,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="24">
+      <c r="A23" s="19">
         <v>45772</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="24">
+      <c r="A24" s="19">
         <v>45775</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="3"/>
@@ -982,10 +969,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="24">
+      <c r="A25" s="19">
         <v>45776</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="3"/>
@@ -994,10 +981,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="24">
+      <c r="A26" s="19">
         <v>45777</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="3">
@@ -1005,34 +992,34 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="24">
+      <c r="A27" s="19">
         <v>45778</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25">
+    <row r="28" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20">
         <v>45779</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="H28" s="30"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="24">
+      <c r="A29" s="19">
         <v>45782</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="3">
@@ -1041,10 +1028,10 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
+      <c r="A30" s="19">
         <v>45783</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3">
@@ -1053,10 +1040,10 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="24">
+      <c r="A31" s="19">
         <v>45784</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="3">
@@ -1064,123 +1051,263 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
+      <c r="A32" s="19">
         <v>45785</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="24">
+    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
         <v>45786</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
         <v>45789</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="24">
+    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
         <v>45790</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="24">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
         <v>45791</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="24">
+    <row r="37" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
         <v>45792</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="24">
+    <row r="38" spans="1:8" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
         <v>45793</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="22"/>
-      <c r="D39" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>45796</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>45797</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="19">
+        <v>45798</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>45799</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20">
+        <v>45800</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <v>45801</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
+        <v>45802</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>45803</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="19">
+        <v>45804</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
+        <v>45807</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="19">
+        <v>45810</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="19">
+        <v>45811</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="19">
+        <v>45812</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>45813</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
+        <v>45814</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>45817</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="19">
+        <v>45818</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="19">
+        <v>45819</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="19">
+        <v>45820</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="19">
+        <v>45821</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="19">
+        <v>45824</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="19">
+        <v>45825</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="19">
+        <v>45826</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="19">
+        <v>45827</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="19">
+        <v>45828</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D64" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="32">
-        <f>SUM(D9:D38)</f>
-        <v>130</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="E64" s="27">
+        <f>SUM(D9:D63)</f>
+        <v>122</v>
+      </c>
+      <c r="F64" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="33" t="e">
+      <c r="G64" s="28" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
